--- a/medicine/Mort/Décès_en_1315/Décès_en_1315.xlsx
+++ b/medicine/Mort/Décès_en_1315/Décès_en_1315.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1315</t>
+          <t>Décès_en_1315</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -504,7 +516,7 @@
 29 avril : André Lemoine, évêque de Noyon.
 30 avril :
 Enguerrand de Marigny, chambellan et ministre du roi Philippe IV le Bel, comte de Longueville.
-Marguerite de Bourgogne, titrée reine de France et de Navarre, impliquée dans le scandale de la Tour de Nesle[1].
+Marguerite de Bourgogne, titrée reine de France et de Navarre, impliquée dans le scandale de la Tour de Nesle.
 1er mai : Marguerite de Brandebourg, duchesse consort de Grande-Pologne, reine consort de Pologne et duchesse consort de Saxe-Lauenburg-Ratzenburg (en).
 9 mai : Hugues V de Bourgogne, duc de Bourgogne, roi titulaire de Thessalonique.
 13 mai : Adolphe VI de Holstein-Schaumbourg, comte de Holstein-Pinneberg et de Schaumbourg.
